--- a/acervo separado/Acervo_Utensilio_de_cozinha_mesa.xlsx
+++ b/acervo separado/Acervo_Utensilio_de_cozinha_mesa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12300B1E-1E86-4216-A0B4-56F107235647}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788716FF-A9FC-4CE1-9729-1B8BFB479586}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$88</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$88</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,9 +111,6 @@
     <t>S6 EST</t>
   </si>
   <si>
-    <t>Madeira</t>
-  </si>
-  <si>
     <t>S6 EST1</t>
   </si>
   <si>
@@ -119,15 +123,6 @@
     <t>Interiores</t>
   </si>
   <si>
-    <t>Faiança</t>
-  </si>
-  <si>
-    <t>Prata</t>
-  </si>
-  <si>
-    <t>Cristal</t>
-  </si>
-  <si>
     <t>1425</t>
   </si>
   <si>
@@ -137,9 +132,6 @@
     <t>Cálice "?"</t>
   </si>
   <si>
-    <t>Vidro</t>
-  </si>
-  <si>
     <t>5,6 x 5,3 cm</t>
   </si>
   <si>
@@ -161,9 +153,6 @@
     <t>Taça</t>
   </si>
   <si>
-    <t>Jato de areia/cristal</t>
-  </si>
-  <si>
     <t>22,2 x 10,4 cm</t>
   </si>
   <si>
@@ -185,9 +174,6 @@
     <t>Nancy/França</t>
   </si>
   <si>
-    <t>Vidro leitoso pintado</t>
-  </si>
-  <si>
     <t>5,2 x 3,3 cm</t>
   </si>
   <si>
@@ -245,9 +231,6 @@
     <t>Saleiro com tampa</t>
   </si>
   <si>
-    <t>Cristal e prata (tampa)</t>
-  </si>
-  <si>
     <t>9,4 x 3,9 cm</t>
   </si>
   <si>
@@ -266,9 +249,6 @@
     <t>9,5 x 14,0 cm</t>
   </si>
   <si>
-    <t>Porcelana</t>
-  </si>
-  <si>
     <t>1304 A</t>
   </si>
   <si>
@@ -327,9 +307,6 @@
   </si>
   <si>
     <t>Recipiente (miniatura de barril)</t>
-  </si>
-  <si>
-    <t>Pintura/madeira</t>
   </si>
   <si>
     <t>8,3 x 3,8 cm</t>
@@ -808,9 +785,6 @@
     <t>Caixa de chá</t>
   </si>
   <si>
-    <t>Folha de Flandres/couro</t>
-  </si>
-  <si>
     <t>11,9 x 7,0 cm</t>
   </si>
   <si>
@@ -847,9 +821,6 @@
     <t>Travessa (folhas de parreira)</t>
   </si>
   <si>
-    <t>Pintura/marfim</t>
-  </si>
-  <si>
     <t>19,0 x 10,6 cm</t>
   </si>
   <si>
@@ -868,9 +839,6 @@
     <t>Moringa (miniatura)</t>
   </si>
   <si>
-    <t>Pintura metálica policromada/cerâmica</t>
-  </si>
-  <si>
     <t>7,2 x 5,0 cm</t>
   </si>
   <si>
@@ -880,9 +848,6 @@
     <t>Cálice de licor (canelado)</t>
   </si>
   <si>
-    <t>Vidro/cristal</t>
-  </si>
-  <si>
     <t>5,0 x 3,4 cm</t>
   </si>
   <si>
@@ -1217,6 +1182,48 @@
   </si>
   <si>
     <t>7,2 cm</t>
+  </si>
+  <si>
+    <t>mattec_303</t>
+  </si>
+  <si>
+    <t>mattec_95</t>
+  </si>
+  <si>
+    <t>mattec_144</t>
+  </si>
+  <si>
+    <t>mattec_309</t>
+  </si>
+  <si>
+    <t>mattec_96</t>
+  </si>
+  <si>
+    <t>mattec_252</t>
+  </si>
+  <si>
+    <t>mattec_241</t>
+  </si>
+  <si>
+    <t>mattec_103</t>
+  </si>
+  <si>
+    <t>mattec_108</t>
+  </si>
+  <si>
+    <t>mattec_154</t>
+  </si>
+  <si>
+    <t>mattec_255</t>
+  </si>
+  <si>
+    <t>mattec_242</t>
+  </si>
+  <si>
+    <t>mattec_243</t>
+  </si>
+  <si>
+    <t>mattec_307</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,22 +1687,22 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="S1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="T1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="U1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="W1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1703,22 +1710,22 @@
         <v>1425</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1727,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -1739,10 +1746,10 @@
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="S2" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -1750,25 +1757,25 @@
         <v>1437</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -1777,19 +1784,19 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="S3" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1797,22 +1804,22 @@
         <v>1414</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -1821,7 +1828,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1833,10 +1840,10 @@
         <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="S4" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -1844,22 +1851,22 @@
         <v>1415</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -1868,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
@@ -1880,10 +1887,10 @@
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="S5" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1891,28 +1898,28 @@
         <v>1390</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>386</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1921,19 +1928,19 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="S6" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1941,49 +1948,49 @@
         <v>1391</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
       <c r="R7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="S7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1991,22 +1998,22 @@
         <v>1439</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -2015,7 +2022,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -2027,10 +2034,10 @@
         <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="S8" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2038,22 +2045,22 @@
         <v>1416</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -2062,7 +2069,7 @@
         <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
@@ -2074,10 +2081,10 @@
         <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="S9" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2085,22 +2092,22 @@
         <v>1419</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -2109,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
@@ -2121,10 +2128,10 @@
         <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="S10" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2132,22 +2139,22 @@
         <v>1419</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -2156,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
@@ -2168,10 +2175,10 @@
         <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="S11" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2179,25 +2186,25 @@
         <v>1438</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -2206,7 +2213,7 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -2218,10 +2225,10 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="S12" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -2229,25 +2236,25 @@
         <v>1438</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
@@ -2256,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
@@ -2268,10 +2275,10 @@
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S13" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -2279,22 +2286,22 @@
         <v>1420</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -2303,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
@@ -2315,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="S14" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -2326,22 +2333,22 @@
         <v>1304</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -2350,16 +2357,16 @@
         <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -2367,22 +2374,22 @@
         <v>1304</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -2391,16 +2398,16 @@
         <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
         <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -2408,23 +2415,23 @@
         <v>1300</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
+        <v>388</v>
+      </c>
+      <c r="I17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
-        <v>89</v>
-      </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
@@ -2432,22 +2439,22 @@
         <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" t="s">
         <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="S17" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="T17" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2455,22 +2462,22 @@
         <v>1299</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -2479,22 +2486,22 @@
         <v>18</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
         <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="S18" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="T18" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -2502,25 +2509,25 @@
         <v>1354</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -2529,19 +2536,19 @@
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="S19" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -2549,25 +2556,25 @@
         <v>1355</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -2576,19 +2583,19 @@
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="S20" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -2596,22 +2603,22 @@
         <v>1550</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -2620,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
         <v>19</v>
@@ -2632,10 +2639,10 @@
         <v>24</v>
       </c>
       <c r="R21" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="S21" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -2643,25 +2650,25 @@
         <v>1346</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
@@ -2670,16 +2677,16 @@
         <v>18</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
         <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="U22" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -2687,22 +2694,22 @@
         <v>1357</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -2711,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
         <v>22</v>
@@ -2723,10 +2730,10 @@
         <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="S23" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -2734,25 +2741,25 @@
         <v>1348</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I24" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -2761,25 +2768,25 @@
         <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R24" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="S24" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2787,25 +2794,25 @@
         <v>2133</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -2814,25 +2821,25 @@
         <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R25" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="S25" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="V25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2840,25 +2847,25 @@
         <v>1351</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
@@ -2867,19 +2874,19 @@
         <v>18</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
         <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R26" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="S26" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2887,25 +2894,25 @@
         <v>1352</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
@@ -2914,19 +2921,19 @@
         <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R27" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="S27" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2934,25 +2941,25 @@
         <v>1340</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
@@ -2967,13 +2974,13 @@
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="R28" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="S28" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2981,22 +2988,22 @@
         <v>1289</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
@@ -3011,13 +3018,13 @@
         <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="S29" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -3025,25 +3032,25 @@
         <v>1358</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -3052,7 +3059,7 @@
         <v>18</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
@@ -3064,7 +3071,7 @@
         <v>24</v>
       </c>
       <c r="U30" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -3072,25 +3079,25 @@
         <v>1359</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -3099,7 +3106,7 @@
         <v>18</v>
       </c>
       <c r="L31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
@@ -3111,7 +3118,7 @@
         <v>24</v>
       </c>
       <c r="U31" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -3119,22 +3126,22 @@
         <v>1310</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
@@ -3149,10 +3156,10 @@
         <v>22</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3160,22 +3167,22 @@
         <v>1290</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I33" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
@@ -3184,16 +3191,16 @@
         <v>18</v>
       </c>
       <c r="L33" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M33" t="s">
         <v>22</v>
       </c>
       <c r="O33" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="U33" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3201,22 +3208,22 @@
         <v>1311</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
@@ -3231,10 +3238,10 @@
         <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="U34" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3242,22 +3249,22 @@
         <v>1322</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
@@ -3266,16 +3273,16 @@
         <v>18</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s">
         <v>22</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -3283,25 +3290,25 @@
         <v>1326</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J36" t="s">
         <v>17</v>
@@ -3310,16 +3317,16 @@
         <v>18</v>
       </c>
       <c r="L36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s">
         <v>22</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -3327,25 +3334,25 @@
         <v>1327</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
@@ -3354,16 +3361,16 @@
         <v>18</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
         <v>22</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3371,25 +3378,25 @@
         <v>1328</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I38" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
@@ -3398,16 +3405,16 @@
         <v>18</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3415,22 +3422,22 @@
         <v>1317</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J39" t="s">
         <v>17</v>
@@ -3439,16 +3446,16 @@
         <v>18</v>
       </c>
       <c r="L39" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M39" t="s">
         <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="U39" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3456,22 +3463,22 @@
         <v>1330</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
@@ -3480,16 +3487,16 @@
         <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s">
         <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3497,25 +3504,25 @@
         <v>1315</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -3524,16 +3531,16 @@
         <v>18</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
       </c>
       <c r="O41" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="U41" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3541,25 +3548,25 @@
         <v>1316</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F42" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I42" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
@@ -3568,16 +3575,16 @@
         <v>18</v>
       </c>
       <c r="L42" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s">
         <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="U42" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3585,22 +3592,22 @@
         <v>1336</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
@@ -3609,16 +3616,16 @@
         <v>18</v>
       </c>
       <c r="L43" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M43" t="s">
         <v>22</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3626,22 +3633,22 @@
         <v>1337</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I44" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -3650,16 +3657,16 @@
         <v>18</v>
       </c>
       <c r="L44" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s">
         <v>22</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3667,25 +3674,25 @@
         <v>1345</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -3694,16 +3701,16 @@
         <v>18</v>
       </c>
       <c r="L45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45" t="s">
         <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3711,22 +3718,22 @@
         <v>1338</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
@@ -3735,16 +3742,16 @@
         <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M46" t="s">
         <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3752,25 +3759,25 @@
         <v>1344</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
@@ -3779,16 +3786,16 @@
         <v>18</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M47" t="s">
         <v>22</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3796,22 +3803,22 @@
         <v>1332</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I48" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -3820,16 +3827,16 @@
         <v>18</v>
       </c>
       <c r="L48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M48" t="s">
         <v>22</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -3837,22 +3844,22 @@
         <v>1323</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -3861,16 +3868,16 @@
         <v>18</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M49" t="s">
         <v>19</v>
       </c>
       <c r="O49" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -3878,22 +3885,22 @@
         <v>1325</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I50" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
@@ -3902,16 +3909,16 @@
         <v>18</v>
       </c>
       <c r="L50" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M50" t="s">
         <v>22</v>
       </c>
       <c r="O50" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -3919,22 +3926,22 @@
         <v>1324</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -3943,16 +3950,16 @@
         <v>18</v>
       </c>
       <c r="L51" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="M51" t="s">
         <v>22</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -3960,22 +3967,22 @@
         <v>1320</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I52" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -3984,16 +3991,16 @@
         <v>18</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -4001,22 +4008,22 @@
         <v>1334</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I53" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -4025,16 +4032,16 @@
         <v>18</v>
       </c>
       <c r="L53" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s">
         <v>19</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
@@ -4042,22 +4049,22 @@
         <v>1334</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I54" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
@@ -4066,16 +4073,16 @@
         <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s">
         <v>19</v>
       </c>
       <c r="O54" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -4083,22 +4090,22 @@
         <v>1334</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -4107,16 +4114,16 @@
         <v>18</v>
       </c>
       <c r="L55" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s">
         <v>19</v>
       </c>
       <c r="O55" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
@@ -4124,22 +4131,22 @@
         <v>1331</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I56" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -4148,16 +4155,16 @@
         <v>18</v>
       </c>
       <c r="L56" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
       </c>
       <c r="O56" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U56" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
@@ -4165,22 +4172,22 @@
         <v>1329</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -4189,16 +4196,16 @@
         <v>18</v>
       </c>
       <c r="L57" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M57" t="s">
         <v>19</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
@@ -4206,22 +4213,22 @@
         <v>1319</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I58" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -4230,16 +4237,16 @@
         <v>18</v>
       </c>
       <c r="L58" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
       </c>
       <c r="O58" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U58" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
@@ -4247,22 +4254,22 @@
         <v>1333</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I59" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -4271,16 +4278,16 @@
         <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
       </c>
       <c r="O59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
@@ -4288,22 +4295,22 @@
         <v>1321</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I60" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -4312,16 +4319,16 @@
         <v>18</v>
       </c>
       <c r="L60" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M60" t="s">
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U60" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
@@ -4329,25 +4336,25 @@
         <v>1314</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I61" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -4356,16 +4363,16 @@
         <v>18</v>
       </c>
       <c r="L61" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M61" t="s">
         <v>22</v>
       </c>
       <c r="O61" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="U61" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
@@ -4373,22 +4380,22 @@
         <v>1318</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I62" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -4397,19 +4404,19 @@
         <v>18</v>
       </c>
       <c r="L62" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s">
         <v>19</v>
       </c>
       <c r="O62" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="R62" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="S62" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
@@ -4417,22 +4424,22 @@
         <v>1363</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I63" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -4447,13 +4454,13 @@
         <v>19</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R63" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="S63" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -4461,22 +4468,22 @@
         <v>1291</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I64" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -4491,13 +4498,13 @@
         <v>19</v>
       </c>
       <c r="O64" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R64" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="S64" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
@@ -4505,25 +4512,25 @@
         <v>1356</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I65" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -4532,19 +4539,19 @@
         <v>18</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M65" t="s">
         <v>22</v>
       </c>
       <c r="O65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R65" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="S65" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
@@ -4552,25 +4559,25 @@
         <v>1353</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I66" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
@@ -4579,19 +4586,19 @@
         <v>18</v>
       </c>
       <c r="L66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M66" t="s">
         <v>22</v>
       </c>
       <c r="O66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R66" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="S66" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
@@ -4599,22 +4606,22 @@
         <v>1298</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I67" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -4629,19 +4636,19 @@
         <v>22</v>
       </c>
       <c r="O67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R67" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="S67" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="W67" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
@@ -4649,22 +4656,22 @@
         <v>1305</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I68" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
@@ -4679,19 +4686,19 @@
         <v>22</v>
       </c>
       <c r="O68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R68" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="S68" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="W68" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
@@ -4699,22 +4706,22 @@
         <v>1302</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I69" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -4729,13 +4736,13 @@
         <v>22</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R69" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="S69" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
@@ -4743,22 +4750,22 @@
         <v>1303</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I70" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
@@ -4773,13 +4780,13 @@
         <v>22</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R70" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="S70" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
@@ -4787,25 +4794,25 @@
         <v>1347</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I71" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
@@ -4814,25 +4821,25 @@
         <v>18</v>
       </c>
       <c r="L71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M71" t="s">
         <v>22</v>
       </c>
       <c r="O71" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="R71" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="S71" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="W71" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
@@ -4840,22 +4847,22 @@
         <v>1297</v>
       </c>
       <c r="B72" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E72" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I72" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
@@ -4870,19 +4877,19 @@
         <v>22</v>
       </c>
       <c r="O72" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R72" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="S72" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="W72" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
@@ -4890,22 +4897,22 @@
         <v>1301</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I73" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
@@ -4920,13 +4927,13 @@
         <v>22</v>
       </c>
       <c r="O73" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R73" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="S73" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
@@ -4934,25 +4941,25 @@
         <v>1362</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -4961,19 +4968,19 @@
         <v>18</v>
       </c>
       <c r="L74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M74" t="s">
         <v>22</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R74" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="S74" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
@@ -4981,22 +4988,22 @@
         <v>1313</v>
       </c>
       <c r="B75" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I75" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -5011,10 +5018,10 @@
         <v>22</v>
       </c>
       <c r="O75" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="U75" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
@@ -5022,22 +5029,22 @@
         <v>1312</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I76" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
@@ -5052,10 +5059,10 @@
         <v>22</v>
       </c>
       <c r="O76" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U76" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
@@ -5063,22 +5070,22 @@
         <v>1335</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I77" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
@@ -5087,19 +5094,19 @@
         <v>18</v>
       </c>
       <c r="L77" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="M77" t="s">
         <v>19</v>
       </c>
       <c r="O77" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="R77" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="S77" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -5107,22 +5114,22 @@
         <v>1518</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
       <c r="I78" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
@@ -5131,7 +5138,7 @@
         <v>18</v>
       </c>
       <c r="L78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M78" t="s">
         <v>22</v>
@@ -5143,10 +5150,10 @@
         <v>24</v>
       </c>
       <c r="R78" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="S78" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
@@ -5154,25 +5161,25 @@
         <v>1483</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F79" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H79" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="I79" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -5181,7 +5188,7 @@
         <v>18</v>
       </c>
       <c r="L79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
@@ -5193,10 +5200,10 @@
         <v>24</v>
       </c>
       <c r="R79" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="S79" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
@@ -5204,25 +5211,25 @@
         <v>1377</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F80" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>392</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
@@ -5231,7 +5238,7 @@
         <v>18</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M80" t="s">
         <v>22</v>
@@ -5243,7 +5250,7 @@
         <v>24</v>
       </c>
       <c r="R80" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
@@ -5251,25 +5258,25 @@
         <v>1437</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="H81" t="s">
-        <v>32</v>
+        <v>393</v>
       </c>
       <c r="I81" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J81" t="s">
         <v>17</v>
@@ -5278,7 +5285,7 @@
         <v>18</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M81" t="s">
         <v>22</v>
@@ -5290,10 +5297,10 @@
         <v>24</v>
       </c>
       <c r="R81" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="S81" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
@@ -5301,25 +5308,25 @@
         <v>1431</v>
       </c>
       <c r="B82" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H82" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="I82" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -5328,7 +5335,7 @@
         <v>18</v>
       </c>
       <c r="L82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M82" t="s">
         <v>22</v>
@@ -5340,10 +5347,10 @@
         <v>24</v>
       </c>
       <c r="R82" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="S82" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
@@ -5351,25 +5358,25 @@
         <v>1430</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="H83" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="I83" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
@@ -5378,7 +5385,7 @@
         <v>18</v>
       </c>
       <c r="L83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M83" t="s">
         <v>22</v>
@@ -5390,10 +5397,10 @@
         <v>24</v>
       </c>
       <c r="R83" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="S83" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
@@ -5401,25 +5408,25 @@
         <v>1423</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" t="s">
         <v>279</v>
       </c>
-      <c r="F84" t="s">
-        <v>293</v>
-      </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>395</v>
       </c>
       <c r="I84" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
@@ -5428,7 +5435,7 @@
         <v>18</v>
       </c>
       <c r="L84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M84" t="s">
         <v>22</v>
@@ -5440,10 +5447,10 @@
         <v>24</v>
       </c>
       <c r="R84" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="S84" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
@@ -5451,22 +5458,22 @@
         <v>1389</v>
       </c>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="I85" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -5475,7 +5482,7 @@
         <v>18</v>
       </c>
       <c r="L85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
@@ -5487,10 +5494,10 @@
         <v>24</v>
       </c>
       <c r="R85" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="S85" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
@@ -5498,22 +5505,22 @@
         <v>1301</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I86" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J86" t="s">
         <v>17</v>
@@ -5522,16 +5529,16 @@
         <v>18</v>
       </c>
       <c r="L86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M86" t="s">
         <v>22</v>
       </c>
       <c r="O86" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U86" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -5539,22 +5546,22 @@
         <v>1302</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I87" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -5563,16 +5570,16 @@
         <v>18</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M87" t="s">
         <v>22</v>
       </c>
       <c r="O87" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U87" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
@@ -5580,22 +5587,22 @@
         <v>1303</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="I88" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -5604,16 +5611,16 @@
         <v>18</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M88" t="s">
         <v>22</v>
       </c>
       <c r="O88" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U88" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
